--- a/biology/Botanique/Calophyllum_spectabile/Calophyllum_spectabile.xlsx
+++ b/biology/Botanique/Calophyllum_spectabile/Calophyllum_spectabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calophyllum spectabile[1], appelé communément takamaka rouge à La Réunion, est une espèce de plantes à fleurs de la famille des Clusiaceae, selon la classification classique, des Calophyllaceae, selon la classification phylogénétique. C'est un arbre pouvant atteindre dix à quinze mètres de hauteur. Il est endémique de l'île Maurice et de La Réunion.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calophyllum spectabile, appelé communément takamaka rouge à La Réunion, est une espèce de plantes à fleurs de la famille des Clusiaceae, selon la classification classique, des Calophyllaceae, selon la classification phylogénétique. C'est un arbre pouvant atteindre dix à quinze mètres de hauteur. Il est endémique de l'île Maurice et de La Réunion.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son tronc jaunâtre ou à taches grises peut atteindre 25 cm de diamètre à hauteur de poitrine. Ses feuilles simples ou opposées ont un limbe étroitement elliptique plutôt aigu avec des nervures secondaires visibles et saillantes sur les deux faces.
 Son inflorescence est à sept ou huit fleurs simples aux périanthes de sept à neuf pièces et aux étamines nombreuses. Ses fruits sont ovoïdes et peuvent flotter.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre croît dans les forêts humides jusqu'à de hautes altitudes (800 à 1 000 mètres).
 </t>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un bois d'œuvre utilisé pour sa maille fine.
 </t>
